--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,43 +537,43 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H2">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1636346666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N2">
-        <v>0.490904</v>
+        <v>0.681684</v>
       </c>
       <c r="O2">
-        <v>0.1786204457433447</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P2">
-        <v>0.1786204457433446</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q2">
-        <v>0.03392468454844445</v>
+        <v>0.04710883321733333</v>
       </c>
       <c r="R2">
-        <v>0.305322160936</v>
+        <v>0.4239794989559999</v>
       </c>
       <c r="S2">
-        <v>0.07833520341989988</v>
+        <v>0.1520474946679172</v>
       </c>
       <c r="T2">
-        <v>0.07833520341989987</v>
+        <v>0.1520474946679172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,13 +599,13 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H3">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I3">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J3">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>1.961192</v>
       </c>
       <c r="O3">
-        <v>0.7135997857590926</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P3">
-        <v>0.7135997857590924</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q3">
         <v>0.1355312239031111</v>
@@ -635,10 +632,10 @@
         <v>1.219781015128</v>
       </c>
       <c r="S3">
-        <v>0.3129540078416152</v>
+        <v>0.4374377719922456</v>
       </c>
       <c r="T3">
-        <v>0.3129540078416151</v>
+        <v>0.4374377719922456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,13 +661,13 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H4">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I4">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J4">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +682,10 @@
         <v>0.225841</v>
       </c>
       <c r="O4">
-        <v>0.08217455976549935</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P4">
-        <v>0.08217455976549934</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q4">
         <v>0.01560709361322222</v>
@@ -697,15 +694,15 @@
         <v>0.140463842519</v>
       </c>
       <c r="S4">
-        <v>0.03603820843903004</v>
+        <v>0.05037313218925059</v>
       </c>
       <c r="T4">
-        <v>0.03603820843903004</v>
+        <v>0.05037313218925059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2073196666666667</v>
+        <v>0.116689</v>
       </c>
       <c r="H5">
-        <v>0.621959</v>
+        <v>0.350067</v>
       </c>
       <c r="I5">
-        <v>0.4385567570045023</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J5">
-        <v>0.4385567570045023</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023457</v>
+        <v>0.227228</v>
       </c>
       <c r="N5">
-        <v>0.070371</v>
+        <v>0.681684</v>
       </c>
       <c r="O5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q5">
-        <v>0.004863097421000001</v>
+        <v>0.026515008092</v>
       </c>
       <c r="R5">
-        <v>0.043767876789</v>
+        <v>0.238635072828</v>
       </c>
       <c r="S5">
-        <v>0.01122933730395714</v>
+        <v>0.08557929110425895</v>
       </c>
       <c r="T5">
-        <v>0.01122933730395713</v>
+        <v>0.08557929110425894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +782,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.265412</v>
+        <v>0.116689</v>
       </c>
       <c r="H6">
-        <v>0.7962359999999999</v>
+        <v>0.350067</v>
       </c>
       <c r="I6">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J6">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.1636346666666667</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N6">
-        <v>0.490904</v>
+        <v>1.961192</v>
       </c>
       <c r="O6">
-        <v>0.1786204457433447</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P6">
-        <v>0.1786204457433446</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q6">
-        <v>0.04343060414933334</v>
+        <v>0.07628317776266667</v>
       </c>
       <c r="R6">
-        <v>0.390875437344</v>
+        <v>0.6865485998640001</v>
       </c>
       <c r="S6">
-        <v>0.1002852423234448</v>
+        <v>0.2462100050453639</v>
       </c>
       <c r="T6">
-        <v>0.1002852423234448</v>
+        <v>0.2462100050453639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,170 +844,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.265412</v>
+        <v>0.116689</v>
       </c>
       <c r="H7">
-        <v>0.7962359999999999</v>
+        <v>0.350067</v>
       </c>
       <c r="I7">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J7">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6537306666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N7">
-        <v>1.961192</v>
+        <v>0.225841</v>
       </c>
       <c r="O7">
-        <v>0.7135997857590926</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P7">
-        <v>0.7135997857590924</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q7">
-        <v>0.1735079637013333</v>
+        <v>0.008784386816333332</v>
       </c>
       <c r="R7">
-        <v>1.561571673312</v>
+        <v>0.079059481347</v>
       </c>
       <c r="S7">
-        <v>0.4006457779174774</v>
+        <v>0.02835230500096371</v>
       </c>
       <c r="T7">
-        <v>0.4006457779174774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.265412</v>
-      </c>
-      <c r="H8">
-        <v>0.7962359999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.5614432429954977</v>
-      </c>
-      <c r="J8">
-        <v>0.5614432429954979</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.07528033333333332</v>
-      </c>
-      <c r="N8">
-        <v>0.225841</v>
-      </c>
-      <c r="O8">
-        <v>0.08217455976549935</v>
-      </c>
-      <c r="P8">
-        <v>0.08217455976549934</v>
-      </c>
-      <c r="Q8">
-        <v>0.01998030383066666</v>
-      </c>
-      <c r="R8">
-        <v>0.179822734476</v>
-      </c>
-      <c r="S8">
-        <v>0.04613635132646931</v>
-      </c>
-      <c r="T8">
-        <v>0.04613635132646931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.265412</v>
-      </c>
-      <c r="H9">
-        <v>0.7962359999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.5614432429954977</v>
-      </c>
-      <c r="J9">
-        <v>0.5614432429954979</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.023457</v>
-      </c>
-      <c r="N9">
-        <v>0.070371</v>
-      </c>
-      <c r="O9">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="P9">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="Q9">
-        <v>0.006225769284000001</v>
-      </c>
-      <c r="R9">
-        <v>0.056031923556</v>
-      </c>
-      <c r="S9">
-        <v>0.01437587142810638</v>
-      </c>
-      <c r="T9">
-        <v>0.01437587142810638</v>
+        <v>0.02835230500096371</v>
       </c>
     </row>
   </sheetData>
